--- a/data/Напольные конвекторы.xlsx
+++ b/data/Напольные конвекторы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santech/Documents/My/WebProjects/Heaton/heaton_/heaton/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84520336-5BC2-2049-9591-F71F614100C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D5D4CC-5FFF-C747-AEE6-8110541AB0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="4120" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{9B16654C-A221-B44A-BD15-4BFA61150284}"/>
+    <workbookView xWindow="6980" yWindow="4540" windowWidth="27240" windowHeight="16440" xr2:uid="{9B16654C-A221-B44A-BD15-4BFA61150284}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16D0F18-844B-F548-AB93-6464A8420166}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -972,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5F091B-3AD8-4145-BC5B-AF588F67BB8E}">
   <dimension ref="A1:K1837"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>

--- a/data/Напольные конвекторы.xlsx
+++ b/data/Напольные конвекторы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santech/Documents/My/WebProjects/Heaton/heaton_/heaton/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D5D4CC-5FFF-C747-AEE6-8110541AB0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFCB68D-B3FF-B042-B76C-9F450FE07651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6980" yWindow="4540" windowWidth="27240" windowHeight="16440" xr2:uid="{9B16654C-A221-B44A-BD15-4BFA61150284}"/>
+    <workbookView xWindow="6980" yWindow="4540" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{9B16654C-A221-B44A-BD15-4BFA61150284}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Высота, мм</t>
-  </si>
-  <si>
-    <t>Длина, мм</t>
   </si>
   <si>
     <t>Глубина, мм</t>
@@ -466,6 +463,9 @@
   </si>
   <si>
     <t>Напольный конвектор  {Наименование}</t>
+  </si>
+  <si>
+    <t>Ширина, мм</t>
   </si>
 </sst>
 </file>
@@ -904,7 +904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16D0F18-844B-F548-AB93-6464A8420166}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -934,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -947,7 +947,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -955,7 +955,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5F091B-3AD8-4145-BC5B-AF588F67BB8E}">
   <dimension ref="A1:K1837"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -999,39 +999,39 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>_xlfn.CONCAT(A2," ",D2,"-",F2,"-",E2)</f>
@@ -1050,13 +1050,13 @@
         <v>356</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="12" t="str">
         <f t="shared" ref="K2:K33" si="0">_xlfn.CONCAT(C2,".webp")</f>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="9" t="str">
         <f t="shared" ref="C3:C66" si="1">_xlfn.CONCAT(A3," ",D3,"-",F3,"-",E3)</f>
@@ -1087,13 +1087,13 @@
         <v>446</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1124,13 +1124,13 @@
         <v>538</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1161,13 +1161,13 @@
         <v>633</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1198,13 +1198,13 @@
         <v>729</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1235,13 +1235,13 @@
         <v>826</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1272,13 +1272,13 @@
         <v>923</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1287,10 +1287,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1309,13 +1309,13 @@
         <v>1017</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1346,13 +1346,13 @@
         <v>1114</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1361,10 +1361,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1383,13 +1383,13 @@
         <v>1210</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1420,13 +1420,13 @@
         <v>1305</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1435,10 +1435,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1457,13 +1457,13 @@
         <v>1401</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1494,13 +1494,13 @@
         <v>1497</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1509,10 +1509,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1531,13 +1531,13 @@
         <v>1593</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1568,13 +1568,13 @@
         <v>1690</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1605,13 +1605,13 @@
         <v>1784</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1620,10 +1620,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1642,13 +1642,13 @@
         <v>1880</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1679,13 +1679,13 @@
         <v>1977</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1694,10 +1694,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1716,13 +1716,13 @@
         <v>2070</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K20" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1731,10 +1731,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1753,13 +1753,13 @@
         <v>2166</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1768,10 +1768,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1790,13 +1790,13 @@
         <v>2258</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1827,13 +1827,13 @@
         <v>2350</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K23" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1864,13 +1864,13 @@
         <v>2438</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K24" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1879,10 +1879,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1901,13 +1901,13 @@
         <v>2524</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K25" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1916,10 +1916,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1938,13 +1938,13 @@
         <v>2610</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K26" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1975,13 +1975,13 @@
         <v>2703</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K27" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1990,10 +1990,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2012,13 +2012,13 @@
         <v>499</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K28" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2027,10 +2027,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2049,13 +2049,13 @@
         <v>623</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K29" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2064,10 +2064,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2086,13 +2086,13 @@
         <v>754</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K30" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2101,10 +2101,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2123,13 +2123,13 @@
         <v>888</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K31" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2138,10 +2138,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2160,13 +2160,13 @@
         <v>1020</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K32" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2197,13 +2197,13 @@
         <v>1156</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K33" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C34" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2234,13 +2234,13 @@
         <v>1291</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K34" s="12" t="str">
         <f t="shared" ref="K34:K65" si="2">_xlfn.CONCAT(C34,".webp")</f>
@@ -2249,10 +2249,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2271,13 +2271,13 @@
         <v>1425</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K35" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2286,10 +2286,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2308,13 +2308,13 @@
         <v>1559</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K36" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C37" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2345,13 +2345,13 @@
         <v>1693</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K37" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2382,13 +2382,13 @@
         <v>1826</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K38" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2397,10 +2397,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2419,13 +2419,13 @@
         <v>1959</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K39" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2434,10 +2434,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C40" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2456,13 +2456,13 @@
         <v>2093</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K40" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2471,10 +2471,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C41" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2493,13 +2493,13 @@
         <v>2228</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K41" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2530,13 +2530,13 @@
         <v>2362</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K42" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2545,10 +2545,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C43" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2567,13 +2567,13 @@
         <v>2497</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K43" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C44" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2604,13 +2604,13 @@
         <v>2629</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K44" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2619,10 +2619,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C45" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2641,13 +2641,13 @@
         <v>2763</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K45" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C46" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2678,13 +2678,13 @@
         <v>2896</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K46" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C47" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2715,13 +2715,13 @@
         <v>3028</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K47" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2730,10 +2730,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C48" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2752,13 +2752,13 @@
         <v>3158</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K48" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2767,10 +2767,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C49" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2789,13 +2789,13 @@
         <v>3287</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K49" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2804,10 +2804,10 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C50" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2826,13 +2826,13 @@
         <v>3411</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K50" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2841,10 +2841,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C51" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2863,13 +2863,13 @@
         <v>3531</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K51" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2878,10 +2878,10 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C52" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2900,13 +2900,13 @@
         <v>3652</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K52" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2915,10 +2915,10 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2937,13 +2937,13 @@
         <v>3782</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K53" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2952,10 +2952,10 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C54" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2974,13 +2974,13 @@
         <v>435</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K54" s="12" t="str">
         <f t="shared" si="2"/>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3011,13 +3011,13 @@
         <v>552</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K55" s="12" t="str">
         <f t="shared" si="2"/>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C56" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3048,13 +3048,13 @@
         <v>670</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K56" s="12" t="str">
         <f t="shared" si="2"/>
@@ -3063,10 +3063,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C57" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3085,13 +3085,13 @@
         <v>787</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K57" s="12" t="str">
         <f t="shared" si="2"/>
@@ -3100,10 +3100,10 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C58" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3122,13 +3122,13 @@
         <v>905</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K58" s="12" t="str">
         <f t="shared" si="2"/>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3159,13 +3159,13 @@
         <v>1008</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K59" s="12" t="str">
         <f t="shared" si="2"/>
@@ -3174,10 +3174,10 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C60" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3196,13 +3196,13 @@
         <v>1140</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K60" s="12" t="str">
         <f t="shared" si="2"/>
@@ -3211,10 +3211,10 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C61" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3233,13 +3233,13 @@
         <v>1243</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K61" s="12" t="str">
         <f t="shared" si="2"/>
@@ -3248,10 +3248,10 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3270,13 +3270,13 @@
         <v>1375</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K62" s="12" t="str">
         <f t="shared" si="2"/>
@@ -3285,10 +3285,10 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C63" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3307,13 +3307,13 @@
         <v>1492</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K63" s="12" t="str">
         <f t="shared" si="2"/>
@@ -3322,10 +3322,10 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C64" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3344,13 +3344,13 @@
         <v>1610</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K64" s="12" t="str">
         <f t="shared" si="2"/>
@@ -3359,10 +3359,10 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C65" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3381,13 +3381,13 @@
         <v>1727</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K65" s="12" t="str">
         <f t="shared" si="2"/>
@@ -3396,10 +3396,10 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C66" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3418,13 +3418,13 @@
         <v>1844</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K66" s="12" t="str">
         <f t="shared" ref="K66:K97" si="3">_xlfn.CONCAT(C66,".webp")</f>
@@ -3433,10 +3433,10 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C67" s="9" t="str">
         <f t="shared" ref="C67:C130" si="4">_xlfn.CONCAT(A67," ",D67,"-",F67,"-",E67)</f>
@@ -3455,13 +3455,13 @@
         <v>1984</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K67" s="12" t="str">
         <f t="shared" si="3"/>
@@ -3470,10 +3470,10 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3492,13 +3492,13 @@
         <v>2151</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K68" s="12" t="str">
         <f t="shared" si="3"/>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C69" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3529,13 +3529,13 @@
         <v>2273</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K69" s="12" t="str">
         <f t="shared" si="3"/>
@@ -3544,10 +3544,10 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3566,13 +3566,13 @@
         <v>2394</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K70" s="12" t="str">
         <f t="shared" si="3"/>
@@ -3581,10 +3581,10 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C71" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3603,13 +3603,13 @@
         <v>2543</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K71" s="12" t="str">
         <f t="shared" si="3"/>
@@ -3618,10 +3618,10 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C72" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3640,13 +3640,13 @@
         <v>2666</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K72" s="12" t="str">
         <f t="shared" si="3"/>
@@ -3655,10 +3655,10 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C73" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3677,13 +3677,13 @@
         <v>2881</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K73" s="12" t="str">
         <f t="shared" si="3"/>
@@ -3692,10 +3692,10 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C74" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3714,13 +3714,13 @@
         <v>2976</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K74" s="12" t="str">
         <f t="shared" si="3"/>
@@ -3729,10 +3729,10 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C75" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3751,13 +3751,13 @@
         <v>3068</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K75" s="12" t="str">
         <f t="shared" si="3"/>
@@ -3766,10 +3766,10 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C76" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3788,13 +3788,13 @@
         <v>3158</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K76" s="12" t="str">
         <f t="shared" si="3"/>
@@ -3803,10 +3803,10 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C77" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3825,13 +3825,13 @@
         <v>3281</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K77" s="12" t="str">
         <f t="shared" si="3"/>
@@ -3840,10 +3840,10 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C78" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3862,13 +3862,13 @@
         <v>3441</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K78" s="12" t="str">
         <f t="shared" si="3"/>
@@ -3877,10 +3877,10 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C79" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3899,13 +3899,13 @@
         <v>3565</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K79" s="12" t="str">
         <f t="shared" si="3"/>
@@ -3914,10 +3914,10 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C80" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3936,13 +3936,13 @@
         <v>643</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K80" s="12" t="str">
         <f t="shared" si="3"/>
@@ -3951,10 +3951,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C81" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3973,13 +3973,13 @@
         <v>816</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K81" s="12" t="str">
         <f t="shared" si="3"/>
@@ -3988,10 +3988,10 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C82" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4010,13 +4010,13 @@
         <v>990</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K82" s="12" t="str">
         <f t="shared" si="3"/>
@@ -4025,10 +4025,10 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C83" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4047,13 +4047,13 @@
         <v>1150</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K83" s="12" t="str">
         <f t="shared" si="3"/>
@@ -4062,10 +4062,10 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C84" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4084,13 +4084,13 @@
         <v>1322</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K84" s="12" t="str">
         <f t="shared" si="3"/>
@@ -4099,10 +4099,10 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C85" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4121,13 +4121,13 @@
         <v>1458</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K85" s="12" t="str">
         <f t="shared" si="3"/>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C86" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4158,13 +4158,13 @@
         <v>1665</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K86" s="12" t="str">
         <f t="shared" si="3"/>
@@ -4173,10 +4173,10 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C87" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4195,13 +4195,13 @@
         <v>1857</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K87" s="12" t="str">
         <f t="shared" si="3"/>
@@ -4210,10 +4210,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C88" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4232,13 +4232,13 @@
         <v>2055</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K88" s="12" t="str">
         <f t="shared" si="3"/>
@@ -4247,10 +4247,10 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C89" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4269,13 +4269,13 @@
         <v>2281</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K89" s="12" t="str">
         <f t="shared" si="3"/>
@@ -4284,10 +4284,10 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C90" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4306,13 +4306,13 @@
         <v>2461</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K90" s="12" t="str">
         <f t="shared" si="3"/>
@@ -4321,10 +4321,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C91" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4343,13 +4343,13 @@
         <v>2669</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K91" s="12" t="str">
         <f t="shared" si="3"/>
@@ -4358,10 +4358,10 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C92" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4380,13 +4380,13 @@
         <v>2851</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K92" s="12" t="str">
         <f t="shared" si="3"/>
@@ -4395,10 +4395,10 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C93" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4417,13 +4417,13 @@
         <v>3032</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K93" s="12" t="str">
         <f t="shared" si="3"/>
@@ -4432,10 +4432,10 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C94" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4454,13 +4454,13 @@
         <v>3249</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K94" s="12" t="str">
         <f t="shared" si="3"/>
@@ -4469,10 +4469,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C95" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4491,13 +4491,13 @@
         <v>3433</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K95" s="12" t="str">
         <f t="shared" si="3"/>
@@ -4506,10 +4506,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C96" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4528,13 +4528,13 @@
         <v>3617</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K96" s="12" t="str">
         <f t="shared" si="3"/>
@@ -4543,10 +4543,10 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C97" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4565,13 +4565,13 @@
         <v>3841</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K97" s="12" t="str">
         <f t="shared" si="3"/>
@@ -4580,10 +4580,10 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C98" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4602,13 +4602,13 @@
         <v>4027</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K98" s="12" t="str">
         <f t="shared" ref="K98:K129" si="5">_xlfn.CONCAT(C98,".webp")</f>
@@ -4617,10 +4617,10 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4639,13 +4639,13 @@
         <v>4257</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K99" s="12" t="str">
         <f t="shared" si="5"/>
@@ -4654,10 +4654,10 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C100" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4676,13 +4676,13 @@
         <v>4398</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K100" s="12" t="str">
         <f t="shared" si="5"/>
@@ -4691,10 +4691,10 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C101" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4713,13 +4713,13 @@
         <v>4583</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K101" s="12" t="str">
         <f t="shared" si="5"/>
@@ -4728,10 +4728,10 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C102" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4750,13 +4750,13 @@
         <v>4769</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K102" s="12" t="str">
         <f t="shared" si="5"/>
@@ -4765,10 +4765,10 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C103" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4787,13 +4787,13 @@
         <v>4901</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K103" s="12" t="str">
         <f t="shared" si="5"/>
@@ -4802,10 +4802,10 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C104" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4824,13 +4824,13 @@
         <v>5085</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K104" s="12" t="str">
         <f t="shared" si="5"/>
@@ -4839,10 +4839,10 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C105" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4861,13 +4861,13 @@
         <v>5268</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K105" s="12" t="str">
         <f t="shared" si="5"/>
@@ -4876,10 +4876,10 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C106" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4898,13 +4898,13 @@
         <v>560</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K106" s="12" t="str">
         <f t="shared" si="5"/>
@@ -4913,10 +4913,10 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C107" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4935,13 +4935,13 @@
         <v>712</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K107" s="12" t="str">
         <f t="shared" si="5"/>
@@ -4950,10 +4950,10 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C108" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4972,13 +4972,13 @@
         <v>863</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K108" s="12" t="str">
         <f t="shared" si="5"/>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C109" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5009,13 +5009,13 @@
         <v>1014</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K109" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5024,10 +5024,10 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C110" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5046,13 +5046,13 @@
         <v>1165</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I110" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J110" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K110" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5061,10 +5061,10 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C111" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5083,13 +5083,13 @@
         <v>1316</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I111" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J111" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K111" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5098,10 +5098,10 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C112" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5120,13 +5120,13 @@
         <v>1468</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I112" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J112" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K112" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5135,10 +5135,10 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C113" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5157,13 +5157,13 @@
         <v>1619</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I113" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J113" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K113" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5172,10 +5172,10 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C114" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5194,13 +5194,13 @@
         <v>1770</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I114" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J114" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K114" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5209,10 +5209,10 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C115" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5231,13 +5231,13 @@
         <v>1921</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J115" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K115" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5246,10 +5246,10 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C116" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5268,13 +5268,13 @@
         <v>2072</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I116" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J116" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K116" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5283,10 +5283,10 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C117" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5305,13 +5305,13 @@
         <v>2224</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I117" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J117" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K117" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5320,10 +5320,10 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C118" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5342,13 +5342,13 @@
         <v>2375</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I118" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J118" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K118" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5357,10 +5357,10 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C119" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5379,13 +5379,13 @@
         <v>2526</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I119" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J119" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K119" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5394,10 +5394,10 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C120" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5416,13 +5416,13 @@
         <v>2677</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I120" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J120" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K120" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5431,10 +5431,10 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C121" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5453,13 +5453,13 @@
         <v>2828</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J121" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K121" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5468,10 +5468,10 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C122" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5490,13 +5490,13 @@
         <v>2980</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I122" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J122" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K122" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5505,10 +5505,10 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C123" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5527,13 +5527,13 @@
         <v>3131</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I123" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J123" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K123" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5542,10 +5542,10 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C124" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5564,13 +5564,13 @@
         <v>3282</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I124" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J124" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K124" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5579,10 +5579,10 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C125" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5601,13 +5601,13 @@
         <v>3433</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I125" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J125" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K125" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5616,10 +5616,10 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C126" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5638,13 +5638,13 @@
         <v>3584</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I126" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J126" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K126" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5653,10 +5653,10 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C127" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5675,13 +5675,13 @@
         <v>3736</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I127" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J127" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K127" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5690,10 +5690,10 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C128" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5712,13 +5712,13 @@
         <v>3887</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I128" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J128" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K128" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5727,10 +5727,10 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C129" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5749,13 +5749,13 @@
         <v>4038</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I129" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J129" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K129" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5764,10 +5764,10 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C130" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5786,13 +5786,13 @@
         <v>4189</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I130" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J130" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K130" s="12" t="str">
         <f t="shared" ref="K130:K157" si="6">_xlfn.CONCAT(C130,".webp")</f>
@@ -5801,10 +5801,10 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C131" s="9" t="str">
         <f t="shared" ref="C131:C157" si="7">_xlfn.CONCAT(A131," ",D131,"-",F131,"-",E131)</f>
@@ -5823,13 +5823,13 @@
         <v>4340</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I131" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K131" s="12" t="str">
         <f t="shared" si="6"/>
@@ -5838,10 +5838,10 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C132" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5860,13 +5860,13 @@
         <v>828</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I132" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J132" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K132" s="12" t="str">
         <f t="shared" si="6"/>
@@ -5875,10 +5875,10 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C133" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5897,13 +5897,13 @@
         <v>1051</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K133" s="12" t="str">
         <f t="shared" si="6"/>
@@ -5912,10 +5912,10 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C134" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5934,13 +5934,13 @@
         <v>1275</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I134" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J134" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K134" s="12" t="str">
         <f t="shared" si="6"/>
@@ -5949,10 +5949,10 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C135" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5971,13 +5971,13 @@
         <v>1498</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I135" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J135" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K135" s="12" t="str">
         <f t="shared" si="6"/>
@@ -5986,10 +5986,10 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C136" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6008,13 +6008,13 @@
         <v>1722</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I136" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J136" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K136" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6023,10 +6023,10 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C137" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6045,13 +6045,13 @@
         <v>1945</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I137" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J137" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K137" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6060,10 +6060,10 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C138" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6082,13 +6082,13 @@
         <v>2169</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I138" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J138" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K138" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6097,10 +6097,10 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C139" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6119,13 +6119,13 @@
         <v>2392</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I139" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J139" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K139" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6134,10 +6134,10 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C140" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6156,13 +6156,13 @@
         <v>2616</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I140" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J140" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K140" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6171,10 +6171,10 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C141" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6193,13 +6193,13 @@
         <v>2839</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I141" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J141" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K141" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6208,10 +6208,10 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C142" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6230,13 +6230,13 @@
         <v>3063</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K142" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6245,10 +6245,10 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C143" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6267,13 +6267,13 @@
         <v>3285</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J143" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K143" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6282,10 +6282,10 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C144" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6304,13 +6304,13 @@
         <v>3509</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J144" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K144" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6319,10 +6319,10 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C145" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6341,13 +6341,13 @@
         <v>3732</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K145" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6356,10 +6356,10 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C146" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6378,13 +6378,13 @@
         <v>3956</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J146" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K146" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6393,10 +6393,10 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C147" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6415,13 +6415,13 @@
         <v>4179</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K147" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6430,10 +6430,10 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C148" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6452,13 +6452,13 @@
         <v>4403</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I148" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J148" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K148" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6467,10 +6467,10 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C149" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6489,13 +6489,13 @@
         <v>4626</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I149" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K149" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6504,10 +6504,10 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C150" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6526,13 +6526,13 @@
         <v>4850</v>
       </c>
       <c r="H150" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I150" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J150" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K150" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6541,10 +6541,10 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C151" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6563,13 +6563,13 @@
         <v>5073</v>
       </c>
       <c r="H151" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J151" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K151" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6578,10 +6578,10 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C152" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6600,13 +6600,13 @@
         <v>5297</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J152" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K152" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6615,10 +6615,10 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C153" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6637,13 +6637,13 @@
         <v>5520</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K153" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6652,10 +6652,10 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C154" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6674,13 +6674,13 @@
         <v>5744</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K154" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6689,10 +6689,10 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C155" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6711,13 +6711,13 @@
         <v>5967</v>
       </c>
       <c r="H155" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K155" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6726,10 +6726,10 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C156" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6748,13 +6748,13 @@
         <v>6191</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I156" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J156" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K156" s="12" t="str">
         <f t="shared" si="6"/>
@@ -6763,10 +6763,10 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C157" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6785,13 +6785,13 @@
         <v>6414</v>
       </c>
       <c r="H157" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K157" s="12" t="str">
         <f t="shared" si="6"/>
